--- a/Standard_Library_TestCase_EPMUtil.xlsx
+++ b/Standard_Library_TestCase_EPMUtil.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinkapd\Desktop\config\实用工具类\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="120">
   <si>
     <t>Test Environment</t>
   </si>
@@ -1093,6 +1093,31 @@
   </si>
   <si>
     <t>getEPMDocByNumber("0000000021")</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t xml:space="preserve">unitTest013
+</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t xml:space="preserve">unitTest014
+</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t xml:space="preserve">unitTest015
+</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t xml:space="preserve">unitTest016
+</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t xml:space="preserve">unitTest017
+</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -2061,14 +2086,14 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="8" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -2502,14 +2527,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="56"/>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+      <c r="A1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
     </row>
     <row r="2" spans="1:8" ht="27.75">
       <c r="A2" s="4"/>
@@ -2563,10 +2588,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="6"/>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="58"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -2654,10 +2679,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2828,7 +2853,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="27" customFormat="1" ht="72.599999999999994" customHeight="1" thickBot="1">
+    <row r="9" spans="1:11" s="27" customFormat="1" ht="48.75" customHeight="1" thickBot="1">
       <c r="B9" s="28">
         <v>2</v>
       </c>
@@ -2858,7 +2883,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="27" customFormat="1" ht="72.599999999999994" customHeight="1" thickBot="1">
+    <row r="10" spans="1:11" s="27" customFormat="1" ht="45" customHeight="1" thickBot="1">
       <c r="B10" s="28"/>
       <c r="C10" s="46"/>
       <c r="D10" s="44" t="s">
@@ -3090,7 +3115,7 @@
         <v>88</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="E19" s="42" t="s">
         <v>93</v>
@@ -3101,7 +3126,7 @@
       <c r="G19" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="H19" s="59" t="s">
+      <c r="H19" s="56" t="s">
         <v>97</v>
       </c>
       <c r="I19" s="31" t="s">
@@ -3118,7 +3143,7 @@
         <v>87</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="E20" s="42" t="s">
         <v>102</v>
@@ -3148,7 +3173,7 @@
         <v>96</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="E21" s="42" t="s">
         <v>93</v>
@@ -3178,7 +3203,7 @@
         <v>101</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="E22" s="42" t="s">
         <v>103</v>
@@ -3208,7 +3233,7 @@
         <v>108</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="E23" s="42" t="s">
         <v>103</v>
@@ -3229,102 +3254,12 @@
       <c r="K23" s="38" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="24" spans="2:11" s="27" customFormat="1" ht="42" customHeight="1">
-      <c r="B24" s="28"/>
-      <c r="C24" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="38"/>
-    </row>
-    <row r="25" spans="2:11" s="27" customFormat="1" ht="42" customHeight="1">
-      <c r="B25" s="28"/>
-      <c r="C25" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="J25" s="29"/>
-      <c r="K25" s="38"/>
-    </row>
-    <row r="26" spans="2:11" s="27" customFormat="1" ht="42" customHeight="1">
-      <c r="B26" s="28"/>
-      <c r="C26" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="29"/>
-      <c r="K26" s="38"/>
-    </row>
-    <row r="27" spans="2:11" s="27" customFormat="1" ht="42" customHeight="1">
-      <c r="B27" s="28"/>
-      <c r="C27" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="29"/>
-      <c r="K27" s="38"/>
-    </row>
-    <row r="28" spans="2:11" s="27" customFormat="1" ht="42" customHeight="1">
-      <c r="B28" s="28"/>
-      <c r="C28" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="42"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="J28" s="29"/>
-      <c r="K28" s="38"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <phoneticPr fontId="11"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I23">
       <formula1>"-,Pass,Fail,Pass With Issues,TBD"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Standard_Library_TestCase_EPMUtil.xlsx
+++ b/Standard_Library_TestCase_EPMUtil.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4455" windowWidth="12510" windowHeight="4395" tabRatio="884" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4455" windowWidth="12510" windowHeight="4395" tabRatio="884"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="11" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="121">
   <si>
     <t>Test Environment</t>
   </si>
@@ -1119,6 +1119,10 @@
     <t xml:space="preserve">unitTest017
 </t>
     <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>hq_VM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2516,7 +2520,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -2611,7 +2615,9 @@
       <c r="B9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>120</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -2681,7 +2687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
